--- a/data/contracts.xlsx
+++ b/data/contracts.xlsx
@@ -22,20 +22,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+  <si>
+    <t>DAF XG 480</t>
+  </si>
+  <si>
+    <t>Toyota Corolla TS</t>
+  </si>
+  <si>
+    <t>Volvo FH 460</t>
+  </si>
+  <si>
+    <t>IVECO Crossway Line</t>
+  </si>
+  <si>
+    <t>Jekko SPX 650CDH-3B</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Actros 5</t>
+  </si>
+  <si>
+    <t>STILL RX 20-16</t>
+  </si>
+  <si>
+    <t>Toyota Corolla SD</t>
+  </si>
+  <si>
+    <t>Kögel Mega Rail</t>
+  </si>
+  <si>
+    <t>Kögel Mega 3</t>
+  </si>
+  <si>
+    <t>Toyota Yaris 1,5</t>
+  </si>
+  <si>
+    <t>Renault T480 T4X2</t>
+  </si>
   <si>
     <t>DAF XF 480</t>
   </si>
   <si>
+    <t>Plasser SSP 100</t>
+  </si>
+  <si>
     <t> DAF XG 480</t>
   </si>
   <si>
+    <t xml:space="preserve">Renault Master </t>
+  </si>
+  <si>
+    <t>Mercedes-Benz G 500</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz Actros 1845</t>
+  </si>
+  <si>
+    <t>Linde R14 HD</t>
+  </si>
+  <si>
+    <t>DOOSAN LYNX 2600SY</t>
+  </si>
+  <si>
+    <t>SETRA S515 HD</t>
+  </si>
+  <si>
+    <t>MB Actros 1846LS</t>
+  </si>
+  <si>
+    <t>Schmitz Cargobull SCS</t>
+  </si>
+  <si>
+    <t>Renault Master 2.3</t>
+  </si>
+  <si>
+    <t>Linde R14 ION</t>
+  </si>
+  <si>
+    <t>Porsche 911 GT3</t>
+  </si>
+  <si>
+    <t>Linde E60: 6,0t</t>
+  </si>
+  <si>
+    <t>Plasser &amp; Theurer</t>
+  </si>
+  <si>
+    <t>Toyota Corolla Cross</t>
+  </si>
+  <si>
+    <t>McCormick X7.620 Premium</t>
+  </si>
+  <si>
     <t>34382888-1-42</t>
   </si>
   <si>
     <t>14348434-2-12</t>
   </si>
   <si>
+    <t>33432423-1-13</t>
+  </si>
+  <si>
+    <t>44332423-3-21</t>
+  </si>
+  <si>
+    <t>43245652-5-45</t>
+  </si>
+  <si>
+    <t>56345453-2-34</t>
+  </si>
+  <si>
+    <t>54656345-3-34</t>
+  </si>
+  <si>
     <t>contract_id</t>
   </si>
   <si>
@@ -70,6 +169,150 @@
   </si>
   <si>
     <t>LEASE0309-2022</t>
+  </si>
+  <si>
+    <t>LEASE0377-2023</t>
+  </si>
+  <si>
+    <t>LEASE0319-2022</t>
+  </si>
+  <si>
+    <t>LEASE0378-2023</t>
+  </si>
+  <si>
+    <t>LEASE0379-2023</t>
+  </si>
+  <si>
+    <t>LEASE0383-2023</t>
+  </si>
+  <si>
+    <t>LEASE0454-2022</t>
+  </si>
+  <si>
+    <t>LEASE0385-2023</t>
+  </si>
+  <si>
+    <t>LEASE0366-2022</t>
+  </si>
+  <si>
+    <t>LEASE0356-2022</t>
+  </si>
+  <si>
+    <t>LEASE0492-2023</t>
+  </si>
+  <si>
+    <t>LEASE0431-2023</t>
+  </si>
+  <si>
+    <t>LEASE0355-2022</t>
+  </si>
+  <si>
+    <t>LEASE0381-2023</t>
+  </si>
+  <si>
+    <t>LEASE0484-2022</t>
+  </si>
+  <si>
+    <t>LEASE0467-2023</t>
+  </si>
+  <si>
+    <t>LEASE0352-2023</t>
+  </si>
+  <si>
+    <t>LEASE0354-2023</t>
+  </si>
+  <si>
+    <t>LEASE0413-2022</t>
+  </si>
+  <si>
+    <t>LEASE0353-2023</t>
+  </si>
+  <si>
+    <t>LEASE0349-2023</t>
+  </si>
+  <si>
+    <t>LEASE0356-2023</t>
+  </si>
+  <si>
+    <t>LEASE0355-2023</t>
+  </si>
+  <si>
+    <t>LEASE0468-2023</t>
+  </si>
+  <si>
+    <t>LEASE0493-2023</t>
+  </si>
+  <si>
+    <t>LEASE0350-2023</t>
+  </si>
+  <si>
+    <t>LEASE0348-2023</t>
+  </si>
+  <si>
+    <t>LEASE0347-2023</t>
+  </si>
+  <si>
+    <t>LEASE0459-2023</t>
+  </si>
+  <si>
+    <t>LEASE0473-2022</t>
+  </si>
+  <si>
+    <t>LEASE0453-2022</t>
+  </si>
+  <si>
+    <t>LEASE0325-2023</t>
+  </si>
+  <si>
+    <t>LEASE0460-2023</t>
+  </si>
+  <si>
+    <t>LEASE0302-2023</t>
+  </si>
+  <si>
+    <t>LEASE0411-2023</t>
+  </si>
+  <si>
+    <t>LEASE0339-2023</t>
+  </si>
+  <si>
+    <t>LEASE0415-2022</t>
+  </si>
+  <si>
+    <t>LEASE0375-2022</t>
+  </si>
+  <si>
+    <t>LEASE0376-2022</t>
+  </si>
+  <si>
+    <t>LEASE0377-2022</t>
+  </si>
+  <si>
+    <t>LEASE0497-2023</t>
+  </si>
+  <si>
+    <t>LEASE0332-2023</t>
+  </si>
+  <si>
+    <t>LEASE0433-2022</t>
+  </si>
+  <si>
+    <t>LEASE0464-2022</t>
+  </si>
+  <si>
+    <t>LEASE0331-2023</t>
+  </si>
+  <si>
+    <t>LEASE0304-2023</t>
+  </si>
+  <si>
+    <t>LEASE0305-2023</t>
+  </si>
+  <si>
+    <t>LEASE0306-2023</t>
+  </si>
+  <si>
+    <t>LEASE0307-2023</t>
   </si>
 </sst>
 </file>
@@ -460,48 +703,48 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>669819</v>
@@ -524,16 +767,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>925195</v>
@@ -555,148 +798,1540 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I4" s="6"/>
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>577286</v>
+      </c>
+      <c r="F4">
+        <v>467625</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45106</v>
+      </c>
+      <c r="H4" s="1">
+        <v>47637</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J4">
+        <v>450178.5</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I5" s="6"/>
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>824644</v>
+      </c>
+      <c r="F5">
+        <v>600000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44802</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45901</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>411208.4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I6" s="6"/>
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>515278</v>
+      </c>
+      <c r="F6">
+        <v>417690</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45085</v>
+      </c>
+      <c r="H6" s="1">
+        <v>47270</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J6">
+        <v>400396.08</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I7" s="6"/>
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>493406</v>
+      </c>
+      <c r="F7">
+        <v>399960</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45091</v>
+      </c>
+      <c r="H7" s="1">
+        <v>47270</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J7">
+        <v>382806.72</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I8" s="6"/>
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>493406</v>
+      </c>
+      <c r="F8">
+        <v>399960</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45104</v>
+      </c>
+      <c r="H8" s="1">
+        <v>47270</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J8">
+        <v>382806.72</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I9" s="6"/>
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>631316</v>
+      </c>
+      <c r="F9">
+        <v>423000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44881</v>
+      </c>
+      <c r="H9" s="1">
+        <v>46722</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="J9">
+        <v>378558.75</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I10" s="6"/>
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>478473</v>
+      </c>
+      <c r="F10">
+        <v>387855</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45104</v>
+      </c>
+      <c r="H10" s="1">
+        <v>47270</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J10">
+        <v>371796.36</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I11" s="6"/>
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>606032</v>
+      </c>
+      <c r="F11">
+        <v>413100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44824</v>
+      </c>
+      <c r="H11" s="1">
+        <v>46296</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>323792.95</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="6"/>
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>541317</v>
+      </c>
+      <c r="F12">
+        <v>354780</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44799</v>
+      </c>
+      <c r="H12" s="1">
+        <v>45870</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="J12">
+        <v>285541.48</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="6"/>
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>368162</v>
+      </c>
+      <c r="F13">
+        <v>293100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45132</v>
+      </c>
+      <c r="H13" s="1">
+        <v>46937</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>282270</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="6"/>
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>365607</v>
+      </c>
+      <c r="F14">
+        <v>266490</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45103</v>
+      </c>
+      <c r="H14" s="1">
+        <v>46569</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J14">
+        <v>255641.79</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I15" s="6"/>
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>408460</v>
+      </c>
+      <c r="F15">
+        <v>267705</v>
+      </c>
+      <c r="G15" s="1">
+        <v>44799</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45870</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J15">
+        <v>215157.6</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="6"/>
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>242680</v>
+      </c>
+      <c r="F16">
+        <v>201215</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45082</v>
+      </c>
+      <c r="H16" s="1">
+        <v>46966</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J16">
+        <v>196098.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>336058</v>
+      </c>
+      <c r="F17">
+        <v>220500</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44907</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J17">
+        <v>185960.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>218367</v>
+      </c>
+      <c r="F18">
+        <v>179162</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45126</v>
+      </c>
+      <c r="H18" s="1">
+        <v>47028</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J18">
+        <v>179161.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>217055</v>
+      </c>
+      <c r="F19">
+        <v>179977</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45082</v>
+      </c>
+      <c r="H19" s="1">
+        <v>46997</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="J19">
+        <v>178514.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>217055</v>
+      </c>
+      <c r="F20">
+        <v>179977</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45082</v>
+      </c>
+      <c r="H20" s="1">
+        <v>46997</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="J20">
+        <v>178273.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>284388</v>
+      </c>
+      <c r="F21">
+        <v>202500</v>
+      </c>
+      <c r="G21" s="1">
+        <v>44844</v>
+      </c>
+      <c r="H21" s="1">
+        <v>47059</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J21">
+        <v>178182.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>217055</v>
+      </c>
+      <c r="F22">
+        <v>179426</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H22" s="1">
+        <v>46997</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <v>177775.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>218897</v>
+      </c>
+      <c r="F23">
+        <v>180945</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H23" s="1">
+        <v>46601</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J23">
+        <v>175378.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>217055</v>
+      </c>
+      <c r="F24">
+        <v>179426</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H24" s="1">
+        <v>46966</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J24">
+        <v>175121.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>217055</v>
+      </c>
+      <c r="F25">
+        <v>179426</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H25" s="1">
+        <v>46966</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>174982.39999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>212656</v>
+      </c>
+      <c r="F26">
+        <v>174490</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45126</v>
+      </c>
+      <c r="H26" s="1">
+        <v>47028</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J26">
+        <v>174490.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>224895</v>
+      </c>
+      <c r="F27">
+        <v>181315</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45111</v>
+      </c>
+      <c r="H27" s="1">
+        <v>46937</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J27">
+        <v>174153.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>218897</v>
+      </c>
+      <c r="F28">
+        <v>181500</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45082</v>
+      </c>
+      <c r="H28" s="1">
+        <v>46569</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J28">
+        <v>172364.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>218897</v>
+      </c>
+      <c r="F29">
+        <v>180945</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H29" s="1">
+        <v>46569</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J29">
+        <v>171915.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>218897</v>
+      </c>
+      <c r="F30">
+        <v>180945</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H30" s="1">
+        <v>46569</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J30">
+        <v>171848.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>219543</v>
+      </c>
+      <c r="F31">
+        <v>177000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45117</v>
+      </c>
+      <c r="H31" s="1">
+        <v>46937</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J31">
+        <v>169449.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>368202</v>
+      </c>
+      <c r="F32">
+        <v>189000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>44915</v>
+      </c>
+      <c r="H32" s="1">
+        <v>46755</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J32">
+        <v>164164.35999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>246900</v>
+      </c>
+      <c r="F33">
+        <v>162000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>44888</v>
+      </c>
+      <c r="H33" s="1">
+        <v>46722</v>
+      </c>
+      <c r="I33" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J33">
+        <v>144822.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>271380</v>
+      </c>
+      <c r="F34">
+        <v>150850</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45043</v>
+      </c>
+      <c r="H34" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>139924</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>158982</v>
+      </c>
+      <c r="F35">
+        <v>129114</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45105</v>
+      </c>
+      <c r="H35" s="1">
+        <v>46937</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J35">
+        <v>124246.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>248672</v>
+      </c>
+      <c r="F36">
+        <v>123500</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45146</v>
+      </c>
+      <c r="H36" s="1">
+        <v>46966</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J36">
+        <v>119899.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>154343</v>
+      </c>
+      <c r="F37">
+        <v>125000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45089</v>
+      </c>
+      <c r="H37" s="1">
+        <v>46937</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J37">
+        <v>119491.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>152397</v>
+      </c>
+      <c r="F38">
+        <v>122256</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45055</v>
+      </c>
+      <c r="H38" s="1">
+        <v>47270</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J38">
+        <v>117394.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>183140</v>
+      </c>
+      <c r="F39">
+        <v>130720</v>
+      </c>
+      <c r="G39" s="1">
+        <v>44853</v>
+      </c>
+      <c r="H39" s="1">
+        <v>47088</v>
+      </c>
+      <c r="I39" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="J39">
+        <v>116015.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>215995</v>
+      </c>
+      <c r="F40">
+        <v>123040</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44839</v>
+      </c>
+      <c r="H40" s="1">
+        <v>46661</v>
+      </c>
+      <c r="I40" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J40">
+        <v>109571.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>215995</v>
+      </c>
+      <c r="F41">
+        <v>123040</v>
+      </c>
+      <c r="G41" s="1">
+        <v>44839</v>
+      </c>
+      <c r="H41" s="1">
+        <v>46661</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J41">
+        <v>109571.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>215995</v>
+      </c>
+      <c r="F42">
+        <v>123040</v>
+      </c>
+      <c r="G42" s="1">
+        <v>44839</v>
+      </c>
+      <c r="H42" s="1">
+        <v>46661</v>
+      </c>
+      <c r="I42" s="6">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>109571.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>209453</v>
+      </c>
+      <c r="F43">
+        <v>116631</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45117</v>
+      </c>
+      <c r="H43" s="1">
+        <v>46204</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J43">
+        <v>108750.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>163436</v>
+      </c>
+      <c r="F44">
+        <v>117171</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45043</v>
+      </c>
+      <c r="H44" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J44">
+        <v>108666.76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>274199</v>
+      </c>
+      <c r="F45">
+        <v>132808</v>
+      </c>
+      <c r="G45" s="1">
+        <v>44851</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45964</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J45">
+        <v>102285.15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>161534</v>
+      </c>
+      <c r="F46">
+        <v>119000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44880</v>
+      </c>
+      <c r="H46" s="1">
+        <v>46722</v>
+      </c>
+      <c r="I46" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="J46">
+        <v>100482.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>129680</v>
+      </c>
+      <c r="F47">
+        <v>103940</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45048</v>
+      </c>
+      <c r="H47" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J47">
+        <v>97851.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>130477</v>
+      </c>
+      <c r="F48">
+        <v>103610</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45048</v>
+      </c>
+      <c r="H48" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I48" s="6">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>97563.89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>130477</v>
+      </c>
+      <c r="F49">
+        <v>103610</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45048</v>
+      </c>
+      <c r="H49" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I49" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="J49">
+        <v>97563.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>130477</v>
+      </c>
+      <c r="F50">
+        <v>103610</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45048</v>
+      </c>
+      <c r="H50" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>97563.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>130477</v>
+      </c>
+      <c r="F51">
+        <v>103610</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45048</v>
+      </c>
+      <c r="H51" s="1">
+        <v>46875</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J51">
+        <v>97563.89</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J332">
